--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.949238666666667</v>
+        <v>0.4173876666666667</v>
       </c>
       <c r="H2">
-        <v>8.847716</v>
+        <v>1.252163</v>
       </c>
       <c r="I2">
-        <v>0.5666145353461176</v>
+        <v>0.1865415014963835</v>
       </c>
       <c r="J2">
-        <v>0.5666145353461176</v>
+        <v>0.1865415014963835</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>12.81383</v>
+        <v>10.502639</v>
       </c>
       <c r="N2">
-        <v>38.44149</v>
+        <v>31.507917</v>
       </c>
       <c r="O2">
-        <v>0.9473986646189124</v>
+        <v>0.9701256668284471</v>
       </c>
       <c r="P2">
-        <v>0.9473986646189124</v>
+        <v>0.970125666828447</v>
       </c>
       <c r="Q2">
-        <v>37.79104290409334</v>
+        <v>4.383671986052334</v>
       </c>
       <c r="R2">
-        <v>340.11938613684</v>
+        <v>39.453047874471</v>
       </c>
       <c r="S2">
-        <v>0.5368098541405774</v>
+        <v>0.1809686985303589</v>
       </c>
       <c r="T2">
-        <v>0.5368098541405774</v>
+        <v>0.1809686985303588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.949238666666667</v>
+        <v>0.4173876666666667</v>
       </c>
       <c r="H3">
-        <v>8.847716</v>
+        <v>1.252163</v>
       </c>
       <c r="I3">
-        <v>0.5666145353461176</v>
+        <v>0.1865415014963835</v>
       </c>
       <c r="J3">
-        <v>0.5666145353461176</v>
+        <v>0.1865415014963835</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.878162</v>
       </c>
       <c r="O3">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="P3">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="Q3">
-        <v>0.8633031086657778</v>
+        <v>0.1221779960451111</v>
       </c>
       <c r="R3">
-        <v>7.769727977992</v>
+        <v>1.099601964406</v>
       </c>
       <c r="S3">
-        <v>0.01226294857800251</v>
+        <v>0.005043806426137818</v>
       </c>
       <c r="T3">
-        <v>0.01226294857800251</v>
+        <v>0.005043806426137817</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.949238666666667</v>
+        <v>0.4173876666666667</v>
       </c>
       <c r="H4">
-        <v>8.847716</v>
+        <v>1.252163</v>
       </c>
       <c r="I4">
-        <v>0.5666145353461176</v>
+        <v>0.1865415014963835</v>
       </c>
       <c r="J4">
-        <v>0.5666145353461176</v>
+        <v>0.1865415014963835</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.418727</v>
+        <v>0.03070066666666667</v>
       </c>
       <c r="N4">
-        <v>1.256181</v>
+        <v>0.092102</v>
       </c>
       <c r="O4">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="P4">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="Q4">
-        <v>1.234925859177333</v>
+        <v>0.01281407962511111</v>
       </c>
       <c r="R4">
-        <v>11.114332732596</v>
+        <v>0.115326716626</v>
       </c>
       <c r="S4">
-        <v>0.01754173262753771</v>
+        <v>0.0005289965398868835</v>
       </c>
       <c r="T4">
-        <v>0.01754173262753771</v>
+        <v>0.0005289965398868835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.662493</v>
       </c>
       <c r="I5">
-        <v>0.2345488676855596</v>
+        <v>0.5456214114616024</v>
       </c>
       <c r="J5">
-        <v>0.2345488676855596</v>
+        <v>0.5456214114616023</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>12.81383</v>
+        <v>10.502639</v>
       </c>
       <c r="N5">
-        <v>38.44149</v>
+        <v>31.507917</v>
       </c>
       <c r="O5">
-        <v>0.9473986646189124</v>
+        <v>0.9701256668284471</v>
       </c>
       <c r="P5">
-        <v>0.9473986646189124</v>
+        <v>0.970125666828447</v>
       </c>
       <c r="Q5">
-        <v>15.64352089273</v>
+        <v>12.821947273009</v>
       </c>
       <c r="R5">
-        <v>140.79168803457</v>
+        <v>115.397525457081</v>
       </c>
       <c r="S5">
-        <v>0.2222112840331771</v>
+        <v>0.5293213356300656</v>
       </c>
       <c r="T5">
-        <v>0.2222112840331771</v>
+        <v>0.5293213356300653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.662493</v>
       </c>
       <c r="I6">
-        <v>0.2345488676855596</v>
+        <v>0.5456214114616024</v>
       </c>
       <c r="J6">
-        <v>0.2345488676855596</v>
+        <v>0.5456214114616023</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.878162</v>
       </c>
       <c r="O6">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="P6">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="Q6">
         <v>0.3573624642073334</v>
       </c>
       <c r="R6">
-        <v>3.216262177866</v>
+        <v>3.216262177866001</v>
       </c>
       <c r="S6">
-        <v>0.005076221176888379</v>
+        <v>0.01475279634447335</v>
       </c>
       <c r="T6">
-        <v>0.005076221176888379</v>
+        <v>0.01475279634447334</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>3.662493</v>
       </c>
       <c r="I7">
-        <v>0.2345488676855596</v>
+        <v>0.5456214114616024</v>
       </c>
       <c r="J7">
-        <v>0.2345488676855596</v>
+        <v>0.5456214114616023</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.418727</v>
+        <v>0.03070066666666667</v>
       </c>
       <c r="N7">
-        <v>1.256181</v>
+        <v>0.092102</v>
       </c>
       <c r="O7">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="P7">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="Q7">
-        <v>0.511194902137</v>
+        <v>0.03748032558733334</v>
       </c>
       <c r="R7">
-        <v>4.600754119233</v>
+        <v>0.3373229302860001</v>
       </c>
       <c r="S7">
-        <v>0.007261362475494068</v>
+        <v>0.001547279487063531</v>
       </c>
       <c r="T7">
-        <v>0.007261362475494068</v>
+        <v>0.00154727948706353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.034948</v>
+        <v>0.599287</v>
       </c>
       <c r="H8">
-        <v>3.104844</v>
+        <v>1.797861</v>
       </c>
       <c r="I8">
-        <v>0.1988365969683228</v>
+        <v>0.2678370870420142</v>
       </c>
       <c r="J8">
-        <v>0.1988365969683228</v>
+        <v>0.2678370870420142</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>12.81383</v>
+        <v>10.502639</v>
       </c>
       <c r="N8">
-        <v>38.44149</v>
+        <v>31.507917</v>
       </c>
       <c r="O8">
-        <v>0.9473986646189124</v>
+        <v>0.9701256668284471</v>
       </c>
       <c r="P8">
-        <v>0.9473986646189124</v>
+        <v>0.970125666828447</v>
       </c>
       <c r="Q8">
-        <v>13.26164773084</v>
+        <v>6.294095018393</v>
       </c>
       <c r="R8">
-        <v>119.35482957756</v>
+        <v>56.646855165537</v>
       </c>
       <c r="S8">
-        <v>0.1883775264451579</v>
+        <v>0.2598356326680228</v>
       </c>
       <c r="T8">
-        <v>0.1883775264451579</v>
+        <v>0.2598356326680228</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.034948</v>
+        <v>0.599287</v>
       </c>
       <c r="H9">
-        <v>3.104844</v>
+        <v>1.797861</v>
       </c>
       <c r="I9">
-        <v>0.1988365969683228</v>
+        <v>0.2678370870420142</v>
       </c>
       <c r="J9">
-        <v>0.1988365969683228</v>
+        <v>0.2678370870420142</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.878162</v>
       </c>
       <c r="O9">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="P9">
-        <v>0.02164248852266323</v>
+        <v>0.02703852164627077</v>
       </c>
       <c r="Q9">
-        <v>0.3029506685253334</v>
+        <v>0.1754236901646667</v>
       </c>
       <c r="R9">
-        <v>2.726556016728</v>
+        <v>1.578813211482</v>
       </c>
       <c r="S9">
-        <v>0.004303318767772341</v>
+        <v>0.00724191887565961</v>
       </c>
       <c r="T9">
-        <v>0.004303318767772341</v>
+        <v>0.007241918875659609</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.034948</v>
+        <v>0.599287</v>
       </c>
       <c r="H10">
-        <v>3.104844</v>
+        <v>1.797861</v>
       </c>
       <c r="I10">
-        <v>0.1988365969683228</v>
+        <v>0.2678370870420142</v>
       </c>
       <c r="J10">
-        <v>0.1988365969683228</v>
+        <v>0.2678370870420142</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.418727</v>
+        <v>0.03070066666666667</v>
       </c>
       <c r="N10">
-        <v>1.256181</v>
+        <v>0.092102</v>
       </c>
       <c r="O10">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="P10">
-        <v>0.03095884685842432</v>
+        <v>0.002835811525282158</v>
       </c>
       <c r="Q10">
-        <v>0.433360671196</v>
+        <v>0.01839851042466667</v>
       </c>
       <c r="R10">
-        <v>3.900246040764</v>
+        <v>0.165586593822</v>
       </c>
       <c r="S10">
-        <v>0.006155751755392544</v>
+        <v>0.0007595354983317445</v>
       </c>
       <c r="T10">
-        <v>0.006155751755392544</v>
+        <v>0.0007595354983317445</v>
       </c>
     </row>
   </sheetData>
